--- a/01_Core/00_GMKit/GUIDE.xlsx
+++ b/01_Core/00_GMKit/GUIDE.xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mjHi037bJwTEAMP5r3XfCftTJC/xw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mi+nNZllagrxdNP8shnjGvV4sp2Ug=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="317">
   <si>
     <t>進行表</t>
   </si>
@@ -311,9 +311,6 @@
 ハンドアウト的に、それに乗ってくるＰＬはいない（持っている情報的にも性格的にも、ほぼ確実に擁護に動く）と思われるが、おそらくいきなり殴られる羽目になるラウル役は驚くと思うので、直前に「理不尽に殴ること」を教えておくと心構えができる。</t>
   </si>
   <si>
-    <t>★</t>
-  </si>
-  <si>
     <t>それまでの情報をもとに、GMとの個別チャットなどでほかの人にはわからないように投げてもらう。結果は、誰が何票の投票をされたかだけ全員に開示する。結論（勝利条件判定）は5日目の最終投票になるが、それまでに死亡していた場合は死亡直前の投票先を結論とみなす。ただし、処刑先の票としてはカウントしない。無投票も可で、無投票の場合は『誰かと同じ投票先になる』という判定にはかからない。</t>
   </si>
   <si>
@@ -336,7 +333,12 @@
     <t>聞込</t>
   </si>
   <si>
-    <t>01～12の任意の村人から情報を得る。村人によっては、何度も選択することによってさらに情報を出す。また、別のロールが同じ村人に聞き込みをすることは禁止されていない。</t>
+    <t>01～12の任意の村人から情報を得る。村人によっては、何度も選択することによってさらに情報を出す。また、別のロールが同じ村人に聞き込みをすることは禁止されていない。
+各自別々に聞き込みをするイメージなので、情報の取得はそれぞれ別判定（例：リタが１の①の情報を取得している場合でも、ラウルは１の②からではなく１の①から情報を取得していく）。
+（※ただしココフォリアなどでは再現しにくい部分なので、ＰＬで情報取得段階を共有するかはＧＭがやりやすい方法で構わない）</t>
+  </si>
+  <si>
+    <t>★</t>
   </si>
   <si>
     <t>推理披露前に確認しておきたいところを一問一答程度にお互いで聞きあう時間。</t>
@@ -400,7 +402,7 @@
     <t>議論内の発言の真偽を見抜ける／使用回数は２回まで／任意のタイミングでＧＭに要求
 ======
 特定の範囲の発言を「本当かウソか」だけ確認できる。
-能力をオープンにして周りからの白要素を採りに行く使い方、もしくは密かに仲間を探す使い方を想定している。</t>
+能力をオープンにして周りからの白要素をとりに行く使い方、もしくは密かに仲間を探す使い方を想定している。</t>
   </si>
   <si>
     <t>非開示の証言と引換えに情報を得る／この能力を介した情報は開示できない／任意のタイミングでＧＭに要求
@@ -447,6 +449,13 @@
   <si>
     <t>言い出しっぺのアルヴァンが混同していることでなおさらややこしいが、「人狼」と「オオカミ」は別の存在である。表題通り、システム上探すべきは「オオカミ」。
 ちなみにラウルのハンドアウトはわざとミスリードを誘う形で構成されているので、GMへ「自分がオオカミ（犯人）か？」という質問が来ることが考えられる。その時は「そこも含めて推理しよう」と返すとよいかも。</t>
+  </si>
+  <si>
+    <t>ドミノのエンドの記述について</t>
+  </si>
+  <si>
+    <t>リタとラウルについての話は「殺害を実際の手段として持ってしまうまでにラウルが思い詰めてしまった」ことを指す（実際に殺害してオオカミになっていなくても、殺害手段の用意まではしている）。
+愛ゆえにそうなってしまったので、そして平和主義のリタはそうなってしまったラウルを悲しむと思うので、そういうわけでドミノは憐れんでいる。</t>
   </si>
   <si>
     <t>このシナリオの特殊なところ</t>
@@ -805,7 +814,13 @@
 『ひとつの愛』</t>
   </si>
   <si>
-    <t>勝利条件達成（エンドＡ）</t>
+    <t>両生存・ラウルがオオカミでない
+＋シュクルがエンド1
+『もうひとつを取りこぼさないために』</t>
+  </si>
+  <si>
+    <t>勝利条件達成（エンドＡ）
+『そこにオオカミがいた』</t>
   </si>
   <si>
     <t>エンド２</t>
@@ -828,7 +843,8 @@
 『ホンモノ』</t>
   </si>
   <si>
-    <t>勝利条件非達成（エンドＢ）</t>
+    <t>勝利条件非達成（エンドＢ）
+『ここにオオカミがいる』</t>
   </si>
   <si>
     <t>エンド３</t>
@@ -851,7 +867,8 @@
   </si>
   <si>
     <t>最終投票の最多得票者がアルヴァン
-（エンドC）</t>
+（エンドC）
+『オオカミは闇の中』</t>
   </si>
   <si>
     <t>エンド４</t>
@@ -1052,6 +1069,18 @@
     <t>更新履歴</t>
   </si>
   <si>
+    <t>ver1.1.0</t>
+  </si>
+  <si>
+    <t>・「勝利条件・エンド分岐」にリタ・ラウルのエンド1sを追加</t>
+  </si>
+  <si>
+    <t>・「基本知識」に項目を追加＆加筆修正</t>
+  </si>
+  <si>
+    <t>・誤字の修正</t>
+  </si>
+  <si>
     <t>ver1.0.4</t>
   </si>
   <si>
@@ -1061,16 +1090,10 @@
     <t>・「基本知識」に項目を追加</t>
   </si>
   <si>
-    <t>・誤字の修正</t>
-  </si>
-  <si>
     <t>ver1.0.3</t>
   </si>
   <si>
     <t>・「想定攻略」の表現を読みやすく修正</t>
-  </si>
-  <si>
-    <t>・「基本知識」に項目を追加＆加筆修正</t>
   </si>
   <si>
     <t>・「勝利条件・エンド分岐」にエンディングCを追加</t>
@@ -1112,6 +1135,7 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="18.0"/>
@@ -1762,7 +1786,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="173">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2198,14 +2222,17 @@
     <xf borderId="41" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="42" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="41" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="42" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="42" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="42" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="42" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -2486,17 +2513,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="7.0"/>
-    <col customWidth="1" min="3" max="3" width="24.43"/>
-    <col customWidth="1" min="4" max="4" width="14.14"/>
-    <col customWidth="1" min="5" max="6" width="47.86"/>
-    <col customWidth="1" min="7" max="7" width="37.71"/>
-    <col customWidth="1" min="8" max="10" width="4.71"/>
-    <col customWidth="1" min="11" max="11" width="69.71"/>
-    <col customWidth="1" min="18" max="18" width="22.0"/>
-    <col customWidth="1" min="20" max="20" width="12.43"/>
+    <col customWidth="1" min="2" max="2" width="6.13"/>
+    <col customWidth="1" min="3" max="3" width="21.38"/>
+    <col customWidth="1" min="4" max="4" width="12.38"/>
+    <col customWidth="1" min="5" max="6" width="41.88"/>
+    <col customWidth="1" min="7" max="7" width="33.0"/>
+    <col customWidth="1" min="8" max="10" width="4.13"/>
+    <col customWidth="1" min="11" max="11" width="61.0"/>
+    <col customWidth="1" min="18" max="18" width="19.25"/>
+    <col customWidth="1" min="20" max="20" width="10.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1">
@@ -9476,12 +9503,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.0"/>
-    <col customWidth="1" min="2" max="2" width="91.57"/>
-    <col customWidth="1" min="3" max="3" width="5.29"/>
-    <col customWidth="1" min="4" max="7" width="22.43"/>
+    <col customWidth="1" min="1" max="1" width="29.75"/>
+    <col customWidth="1" min="2" max="2" width="80.13"/>
+    <col customWidth="1" min="3" max="3" width="4.63"/>
+    <col customWidth="1" min="4" max="7" width="19.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1">
@@ -9570,16 +9597,14 @@
       <c r="B8" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" ht="87.0" customHeight="1">
       <c r="A9" s="100" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -9588,36 +9613,38 @@
         <v>33</v>
       </c>
       <c r="B10" s="102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" ht="51.0" customHeight="1">
       <c r="A11" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="102" t="s">
         <v>94</v>
-      </c>
-      <c r="B11" s="102" t="s">
-        <v>95</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" ht="35.25" customHeight="1">
       <c r="A12" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" ht="97.5" customHeight="1">
+      <c r="A13" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" ht="44.25" customHeight="1">
-      <c r="A13" s="100" t="s">
+      <c r="B13" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="C13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="3"/>
     </row>
     <row r="14" ht="35.25" customHeight="1">
       <c r="A14" s="100" t="s">
@@ -9800,18 +9827,24 @@
       <c r="B34" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" ht="24.0" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="96" t="s">
+      <c r="C34" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" ht="87.75" customHeight="1">
+      <c r="A35" s="103" t="s">
         <v>126</v>
       </c>
+      <c r="B35" s="101" t="s">
+        <v>127</v>
+      </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" ht="109.5" customHeight="1">
+    <row r="36" ht="24.0" customHeight="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="95"/>
+      <c r="B36" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="C36" s="3"/>
     </row>
     <row r="37" ht="109.5" customHeight="1">
@@ -9874,7 +9907,7 @@
       <c r="B48" s="95"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" ht="109.5" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="95"/>
       <c r="C49" s="3"/>
@@ -14723,6 +14756,11 @@
       <c r="A1018" s="3"/>
       <c r="B1018" s="95"/>
       <c r="C1018" s="3"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="3"/>
+      <c r="B1019" s="95"/>
+      <c r="C1019" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -14748,26 +14786,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.57"/>
-    <col customWidth="1" min="2" max="2" width="10.29"/>
-    <col customWidth="1" min="3" max="3" width="19.0"/>
-    <col customWidth="1" min="4" max="4" width="10.29"/>
-    <col customWidth="1" min="5" max="5" width="19.0"/>
-    <col customWidth="1" min="6" max="6" width="10.29"/>
-    <col customWidth="1" min="7" max="7" width="19.0"/>
-    <col customWidth="1" min="8" max="8" width="10.29"/>
-    <col customWidth="1" min="9" max="9" width="19.0"/>
-    <col customWidth="1" min="10" max="10" width="10.29"/>
-    <col customWidth="1" min="11" max="11" width="19.0"/>
-    <col customWidth="1" min="12" max="12" width="10.29"/>
-    <col customWidth="1" min="13" max="13" width="19.0"/>
+    <col customWidth="1" min="1" max="1" width="8.38"/>
+    <col customWidth="1" min="2" max="2" width="9.0"/>
+    <col customWidth="1" min="3" max="3" width="16.63"/>
+    <col customWidth="1" min="4" max="4" width="9.0"/>
+    <col customWidth="1" min="5" max="5" width="16.63"/>
+    <col customWidth="1" min="6" max="6" width="9.0"/>
+    <col customWidth="1" min="7" max="7" width="16.63"/>
+    <col customWidth="1" min="8" max="8" width="9.0"/>
+    <col customWidth="1" min="9" max="9" width="16.63"/>
+    <col customWidth="1" min="10" max="10" width="9.0"/>
+    <col customWidth="1" min="11" max="11" width="16.63"/>
+    <col customWidth="1" min="12" max="12" width="9.0"/>
+    <col customWidth="1" min="13" max="13" width="16.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -14826,40 +14864,40 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B3" s="117" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C3" s="118" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D3" s="117" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E3" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="117" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="117" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="117" t="s">
-        <v>128</v>
-      </c>
       <c r="I3" s="118" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J3" s="117" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="K3" s="118" t="s">
-        <v>130</v>
-      </c>
       <c r="L3" s="117" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="118" t="s">
         <v>132</v>
-      </c>
-      <c r="M3" s="118" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" ht="65.25" customHeight="1">
@@ -14867,40 +14905,40 @@
         <v>0.8541666666666666</v>
       </c>
       <c r="B4" s="117" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C4" s="118" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="117" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="117" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="118" t="s">
+      <c r="G4" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="117" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="117" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="118" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="117" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="118" t="s">
+      <c r="K4" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="J4" s="117" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" s="118" t="s">
-        <v>136</v>
-      </c>
-      <c r="L4" s="117" t="s">
-        <v>132</v>
-      </c>
       <c r="M4" s="118" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" ht="65.25" customHeight="1">
@@ -14908,40 +14946,40 @@
         <v>0.875</v>
       </c>
       <c r="B5" s="117" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C5" s="118" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D5" s="117" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E5" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="117" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="117" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="118" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="117" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="118" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="117" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="118" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" s="117" t="s">
-        <v>137</v>
-      </c>
       <c r="K5" s="118" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L5" s="117" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M5" s="118" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" ht="65.25" customHeight="1">
@@ -14949,40 +14987,40 @@
         <v>0.8958333333333334</v>
       </c>
       <c r="B6" s="117" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C6" s="118" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D6" s="117" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E6" s="118" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F6" s="117" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G6" s="118" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H6" s="117" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I6" s="118" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J6" s="117" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K6" s="118" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L6" s="117" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M6" s="118" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" ht="65.25" customHeight="1">
@@ -14990,40 +15028,40 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="B7" s="117" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C7" s="120" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D7" s="117" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E7" s="118" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F7" s="117" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G7" s="118" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H7" s="117" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I7" s="118" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J7" s="117" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K7" s="118" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L7" s="117" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M7" s="118" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" ht="65.25" customHeight="1">
@@ -15031,38 +15069,38 @@
         <v>0.9375</v>
       </c>
       <c r="B8" s="117" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C8" s="118"/>
       <c r="D8" s="117" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E8" s="118" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F8" s="117" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G8" s="118" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H8" s="117" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I8" s="118" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J8" s="117" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K8" s="118" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L8" s="117" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M8" s="118" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" ht="65.25" customHeight="1">
@@ -15070,38 +15108,38 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="B9" s="117" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C9" s="118"/>
       <c r="D9" s="117" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E9" s="118" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F9" s="117" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G9" s="118" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H9" s="117" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I9" s="118" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J9" s="117" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K9" s="118" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L9" s="117" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M9" s="118" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -16760,16 +16798,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.14"/>
-    <col customWidth="1" min="2" max="4" width="50.29"/>
-    <col customWidth="1" min="5" max="6" width="25.86"/>
+    <col customWidth="1" min="1" max="1" width="10.63"/>
+    <col customWidth="1" min="2" max="4" width="44.0"/>
+    <col customWidth="1" min="5" max="6" width="22.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16801,7 +16839,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="117" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C2" s="124"/>
       <c r="D2" s="99"/>
@@ -16811,13 +16849,13 @@
     <row r="3" ht="81.0" customHeight="1">
       <c r="A3" s="125"/>
       <c r="B3" s="126" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C3" s="126" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D3" s="126" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -16846,7 +16884,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="117" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C4" s="124"/>
       <c r="D4" s="99"/>
@@ -16856,7 +16894,7 @@
     <row r="5" ht="81.0" customHeight="1">
       <c r="A5" s="125"/>
       <c r="B5" s="129" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C5" s="130"/>
       <c r="D5" s="102"/>
@@ -16887,7 +16925,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="117" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C6" s="124"/>
       <c r="D6" s="99"/>
@@ -16897,10 +16935,10 @@
     <row r="7" ht="81.0" customHeight="1">
       <c r="A7" s="125"/>
       <c r="B7" s="132" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C7" s="133" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D7" s="102"/>
       <c r="E7" s="95"/>
@@ -16930,7 +16968,7 @@
         <v>4.0</v>
       </c>
       <c r="B8" s="117" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="99"/>
@@ -16940,10 +16978,10 @@
     <row r="9" ht="81.0" customHeight="1">
       <c r="A9" s="125"/>
       <c r="B9" s="132" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C9" s="133" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D9" s="102"/>
       <c r="E9" s="95"/>
@@ -16973,7 +17011,7 @@
         <v>5.0</v>
       </c>
       <c r="B10" s="117" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C10" s="124"/>
       <c r="D10" s="99"/>
@@ -16982,10 +17020,10 @@
     <row r="11" ht="81.0" customHeight="1">
       <c r="A11" s="125"/>
       <c r="B11" s="132" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C11" s="133" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D11" s="102"/>
       <c r="E11" s="95"/>
@@ -17015,7 +17053,7 @@
         <v>6.0</v>
       </c>
       <c r="B12" s="117" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C12" s="124"/>
       <c r="D12" s="99"/>
@@ -17025,13 +17063,13 @@
     <row r="13" ht="81.0" customHeight="1">
       <c r="A13" s="125"/>
       <c r="B13" s="126" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D13" s="126" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -17066,7 +17104,7 @@
     <row r="15" ht="81.0" customHeight="1">
       <c r="A15" s="125"/>
       <c r="B15" s="129" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C15" s="130"/>
       <c r="D15" s="102"/>
@@ -17097,7 +17135,7 @@
         <v>8.0</v>
       </c>
       <c r="B16" s="117" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C16" s="124"/>
       <c r="D16" s="99"/>
@@ -17105,7 +17143,7 @@
     <row r="17" ht="81.0" customHeight="1">
       <c r="A17" s="125"/>
       <c r="B17" s="129" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C17" s="130"/>
       <c r="D17" s="102"/>
@@ -17136,7 +17174,7 @@
         <v>9.0</v>
       </c>
       <c r="B18" s="117" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C18" s="124"/>
       <c r="D18" s="99"/>
@@ -17144,7 +17182,7 @@
     <row r="19" ht="81.0" customHeight="1">
       <c r="A19" s="125"/>
       <c r="B19" s="129" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C19" s="130"/>
       <c r="D19" s="102"/>
@@ -17175,7 +17213,7 @@
         <v>10.0</v>
       </c>
       <c r="B20" s="117" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C20" s="124"/>
       <c r="D20" s="99"/>
@@ -17183,7 +17221,7 @@
     <row r="21" ht="81.0" customHeight="1">
       <c r="A21" s="125"/>
       <c r="B21" s="129" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C21" s="130"/>
       <c r="D21" s="102"/>
@@ -17214,7 +17252,7 @@
         <v>11.0</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C22" s="124"/>
       <c r="D22" s="99"/>
@@ -17222,7 +17260,7 @@
     <row r="23" ht="81.0" customHeight="1">
       <c r="A23" s="125"/>
       <c r="B23" s="129" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C23" s="130"/>
       <c r="D23" s="102"/>
@@ -17253,7 +17291,7 @@
         <v>12.0</v>
       </c>
       <c r="B24" s="117" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C24" s="124"/>
       <c r="D24" s="99"/>
@@ -17261,10 +17299,10 @@
     <row r="25" ht="81.0" customHeight="1">
       <c r="A25" s="125"/>
       <c r="B25" s="132" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C25" s="133" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D25" s="102"/>
       <c r="E25" s="4"/>
@@ -20266,15 +20304,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.57"/>
-    <col customWidth="1" min="2" max="7" width="34.57"/>
+    <col customWidth="1" min="1" max="1" width="18.0"/>
+    <col customWidth="1" min="2" max="4" width="30.25"/>
+    <col customWidth="1" min="5" max="6" width="33.13"/>
+    <col customWidth="1" min="7" max="7" width="30.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -20342,78 +20382,78 @@
     </row>
     <row r="3" ht="33.75" customHeight="1">
       <c r="A3" s="135" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B3" s="136" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D3" s="138" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="139" t="s">
-        <v>200</v>
-      </c>
       <c r="F3" s="141" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G3" s="140" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" ht="49.5" customHeight="1">
       <c r="A4" s="135" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B4" s="136" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D4" s="138" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E4" s="139" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F4" s="139" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G4" s="140" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" ht="42.75" customHeight="1">
       <c r="A5" s="142" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B5" s="143" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D5" s="143" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E5" s="143" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F5" s="143" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G5" s="143" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" ht="42.75" customHeight="1">
       <c r="A6" s="125"/>
       <c r="B6" s="125"/>
       <c r="C6" s="144" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D6" s="125"/>
       <c r="E6" s="125"/>
@@ -20422,25 +20462,25 @@
     </row>
     <row r="7" ht="42.75" customHeight="1">
       <c r="A7" s="142" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B7" s="143" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C7" s="143" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D7" s="143" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E7" s="144" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F7" s="143" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G7" s="143" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" ht="42.75" customHeight="1">
@@ -20449,14 +20489,14 @@
       <c r="C8" s="125"/>
       <c r="D8" s="125"/>
       <c r="E8" s="143" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F8" s="125"/>
       <c r="G8" s="125"/>
     </row>
     <row r="9" ht="49.5" customHeight="1">
       <c r="A9" s="145" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B9" s="146" t="s">
         <v>53</v>
@@ -20468,116 +20508,117 @@
         <v>59</v>
       </c>
       <c r="E9" s="149" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F9" s="150"/>
       <c r="G9" s="151" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" ht="50.25" customHeight="1">
+    <row r="10" ht="57.0" customHeight="1">
       <c r="A10" s="152" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B10" s="153" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C10" s="153" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D10" s="153" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E10" s="154" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="155" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" ht="50.25" customHeight="1">
+        <v>231</v>
+      </c>
+      <c r="F10" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="156" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" ht="57.0" customHeight="1">
       <c r="A11" s="152" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B11" s="153" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C11" s="153" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D11" s="156" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E11" s="154" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F11" s="99"/>
-      <c r="G11" s="155" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" ht="50.25" customHeight="1">
+      <c r="G11" s="156" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" ht="57.0" customHeight="1">
       <c r="A12" s="152" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B12" s="153" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D12" s="153" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E12" s="154" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F12" s="99"/>
       <c r="G12" s="157" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" ht="50.25" customHeight="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" ht="57.0" customHeight="1">
       <c r="A13" s="152" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" s="155" t="s">
-        <v>244</v>
+        <v>246</v>
+      </c>
+      <c r="B13" s="158" t="s">
+        <v>247</v>
       </c>
       <c r="C13" s="153" t="s">
-        <v>245</v>
-      </c>
-      <c r="D13" s="155" t="s">
-        <v>246</v>
+        <v>248</v>
+      </c>
+      <c r="D13" s="158" t="s">
+        <v>249</v>
       </c>
       <c r="E13" s="154" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F13" s="99"/>
-      <c r="G13" s="158"/>
-    </row>
-    <row r="14" ht="50.25" customHeight="1">
+      <c r="G13" s="159"/>
+    </row>
+    <row r="14" ht="57.0" customHeight="1">
       <c r="A14" s="152" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B14" s="153" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C14" s="153" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D14" s="153" t="s">
-        <v>251</v>
-      </c>
-      <c r="E14" s="159"/>
+        <v>254</v>
+      </c>
+      <c r="E14" s="160"/>
       <c r="F14" s="99"/>
-      <c r="G14" s="160"/>
+      <c r="G14" s="161"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -20586,6 +20627,7 @@
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -20594,16 +20636,16 @@
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -22415,15 +22457,7 @@
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-    </row>
+    <row r="220" ht="15.75" customHeight="1"/>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
@@ -23203,19 +23237,10 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:D6"/>
@@ -23224,6 +23249,13 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -23241,15 +23273,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.0"/>
-    <col customWidth="1" min="2" max="6" width="45.14"/>
+    <col customWidth="1" min="1" max="1" width="14.88"/>
+    <col customWidth="1" min="2" max="6" width="39.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -23278,7 +23310,7 @@
     </row>
     <row r="2" ht="21.75" customHeight="1">
       <c r="A2" s="144" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B2" s="136" t="s">
         <v>53</v>
@@ -23317,148 +23349,148 @@
     </row>
     <row r="3" ht="84.75" customHeight="1">
       <c r="A3" s="144" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C3" s="102" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D3" s="102" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E3" s="102" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F3" s="102" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" ht="84.75" customHeight="1">
       <c r="A4" s="144" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D4" s="102" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E4" s="102" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F4" s="102" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" ht="84.75" customHeight="1">
       <c r="A5" s="100" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B5" s="130" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C5" s="130" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D5" s="130" t="s">
-        <v>269</v>
-      </c>
-      <c r="E5" s="161" t="s">
-        <v>270</v>
-      </c>
-      <c r="F5" s="161" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c r="E5" s="162" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="162" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="6" ht="84.75" customHeight="1">
       <c r="A6" s="144" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D6" s="102" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E6" s="102" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F6" s="101" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" ht="46.5" customHeight="1">
       <c r="A7" s="144" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B7" s="102" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C7" s="102" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D7" s="102" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E7" s="102" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F7" s="102" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" ht="7.5" customHeight="1">
-      <c r="A8" s="162"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
     </row>
     <row r="9" ht="94.5" customHeight="1">
-      <c r="A9" s="164" t="s">
-        <v>284</v>
-      </c>
-      <c r="B9" s="165" t="s">
-        <v>285</v>
-      </c>
-      <c r="C9" s="165" t="s">
-        <v>286</v>
-      </c>
-      <c r="D9" s="165" t="s">
+      <c r="A9" s="165" t="s">
         <v>287</v>
       </c>
-      <c r="E9" s="165" t="s">
+      <c r="B9" s="166" t="s">
         <v>288</v>
       </c>
-      <c r="F9" s="165" t="s">
+      <c r="C9" s="166" t="s">
         <v>289</v>
+      </c>
+      <c r="D9" s="166" t="s">
+        <v>290</v>
+      </c>
+      <c r="E9" s="166" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="166" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="10" ht="94.5" customHeight="1">
       <c r="A10" s="125"/>
-      <c r="B10" s="165" t="s">
-        <v>290</v>
-      </c>
-      <c r="C10" s="165" t="s">
-        <v>291</v>
-      </c>
-      <c r="D10" s="165" t="s">
-        <v>292</v>
-      </c>
-      <c r="E10" s="166" t="s">
+      <c r="B10" s="166" t="s">
         <v>293</v>
       </c>
-      <c r="F10" s="166" t="s">
+      <c r="C10" s="166" t="s">
         <v>294</v>
+      </c>
+      <c r="D10" s="166" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="167" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="167" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="11" ht="7.5" customHeight="1">
@@ -25917,11 +25949,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -25949,129 +25981,139 @@
       <c r="Y1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="167">
+      <c r="A2" s="168">
+        <v>44653.0</v>
+      </c>
+      <c r="B2" s="169" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="170" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="170" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="170" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="168"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="170"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="168">
         <v>44625.0</v>
       </c>
-      <c r="B2" s="168" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="169" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="169" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="169" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="167"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="169"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="167">
+      <c r="B6" s="169" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="170" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="170" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="170" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="168"/>
+      <c r="B9" s="169"/>
+      <c r="C9" s="170"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="168">
         <v>44619.0</v>
       </c>
-      <c r="B6" s="168" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="169" t="s">
+      <c r="B10" s="169" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="170" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="170" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="7">
-      <c r="C7" s="169" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="169" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="170">
+    <row r="12">
+      <c r="C12" s="170" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="171">
         <v>44615.0</v>
       </c>
-      <c r="B10" s="122" t="s">
-        <v>304</v>
-      </c>
-      <c r="C10" s="171" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="170"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="169" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="122"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="171" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="122"/>
-      <c r="B13" s="122"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="170">
+      <c r="B14" s="122" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="172" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="171"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="170" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="122"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="172" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="122"/>
+      <c r="B17" s="122"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="171">
         <v>44613.0</v>
       </c>
-      <c r="B14" s="122" t="s">
-        <v>308</v>
-      </c>
-      <c r="C14" s="171" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="170"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="169" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="170"/>
-      <c r="B16" s="122"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="170">
+      <c r="B18" s="122" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="172" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="171"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="170" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="171"/>
+      <c r="B20" s="122"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="171">
         <v>44612.0</v>
       </c>
-      <c r="B17" s="122" t="s">
-        <v>310</v>
-      </c>
-      <c r="C17" s="171" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="122"/>
-      <c r="B18" s="122"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="122"/>
-      <c r="B19" s="122"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="122"/>
-      <c r="B20" s="122"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="122"/>
-      <c r="B21" s="122"/>
+      <c r="B21" s="122" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="172" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="122"/>
@@ -30008,6 +30050,22 @@
     <row r="1005">
       <c r="A1005" s="122"/>
       <c r="B1005" s="122"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="122"/>
+      <c r="B1006" s="122"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="122"/>
+      <c r="B1007" s="122"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="122"/>
+      <c r="B1008" s="122"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="122"/>
+      <c r="B1009" s="122"/>
     </row>
   </sheetData>
   <printOptions/>
